--- a/Code/Results/Cases/Case_1_208/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_208/res_bus/vm_pu.xlsx
@@ -417,159 +417,696 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+        <v>0.9930084505699153</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9962096142533025</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.9909409138966844</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+        <v>0.9983654513757801</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.9991234862284135</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9938713082539624</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.9997832448308507</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.000101573784631</v>
+      </c>
+      <c r="E3">
+        <v>1.002539632169406</v>
+      </c>
+      <c r="F3">
+        <v>0.9988007833120576</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1.00504962954949</v>
+      </c>
+      <c r="L3">
+        <v>1.005238523595305</v>
+      </c>
+      <c r="M3">
+        <v>1.001510397609219</v>
+      </c>
+      <c r="N3">
+        <v>1.006476915304254</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>1.004577625974288</v>
+      </c>
+      <c r="E4">
+        <v>1.006530450827754</v>
+      </c>
+      <c r="F4">
+        <v>1.00376477868173</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1.00926435117339</v>
+      </c>
+      <c r="L4">
+        <v>1.009091298923285</v>
+      </c>
+      <c r="M4">
+        <v>1.006333092772</v>
+      </c>
+      <c r="N4">
+        <v>1.010697622316295</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>1.006433680870129</v>
+      </c>
+      <c r="E5">
+        <v>1.008184407704151</v>
+      </c>
+      <c r="F5">
+        <v>1.00582415859297</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1.01101126140889</v>
+      </c>
+      <c r="L5">
+        <v>1.010687449890044</v>
+      </c>
+      <c r="M5">
+        <v>1.008333407787024</v>
+      </c>
+      <c r="N5">
+        <v>1.012447013364703</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>1.006743857377936</v>
+      </c>
+      <c r="E6">
+        <v>1.008460757943759</v>
+      </c>
+      <c r="F6">
+        <v>1.006168372622093</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1.011303152326119</v>
+      </c>
+      <c r="L6">
+        <v>1.01095410685342</v>
+      </c>
+      <c r="M6">
+        <v>1.008667723380766</v>
+      </c>
+      <c r="N6">
+        <v>1.012739318800515</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>1.004602525622243</v>
+      </c>
+      <c r="E7">
+        <v>1.006552642781277</v>
+      </c>
+      <c r="F7">
+        <v>1.00379240207027</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1.009287789686426</v>
+      </c>
+      <c r="L7">
+        <v>1.009112717611804</v>
+      </c>
+      <c r="M7">
+        <v>1.006359925650492</v>
+      </c>
+      <c r="N7">
+        <v>1.010721094114708</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>0.995430105158893</v>
+      </c>
+      <c r="E8">
+        <v>0.9983715088152663</v>
+      </c>
+      <c r="F8">
+        <v>0.9936234878055302</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1.000648178684721</v>
+      </c>
+      <c r="L8">
+        <v>1.00121248994978</v>
+      </c>
+      <c r="M8">
+        <v>0.9964789233214666</v>
+      </c>
+      <c r="N8">
+        <v>1.002069213874404</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>0.9783205764612936</v>
+      </c>
+      <c r="E9">
+        <v>0.9830817382785769</v>
+      </c>
+      <c r="F9">
+        <v>0.9746875594148408</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.9845060212834779</v>
+      </c>
+      <c r="L9">
+        <v>0.9864271902042447</v>
+      </c>
+      <c r="M9">
+        <v>0.978064036681188</v>
+      </c>
+      <c r="N9">
+        <v>0.9859041327581195</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>0.9661591203248923</v>
+      </c>
+      <c r="E10">
+        <v>0.9721943220809638</v>
+      </c>
+      <c r="F10">
+        <v>0.9612490314044069</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.9730138585618134</v>
+      </c>
+      <c r="L10">
+        <v>0.975884533761235</v>
+      </c>
+      <c r="M10">
+        <v>0.9649848447286575</v>
+      </c>
+      <c r="N10">
+        <v>0.9743956498472207</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>0.9606831415645056</v>
+      </c>
+      <c r="E11">
+        <v>0.9672875309838607</v>
+      </c>
+      <c r="F11">
+        <v>0.9552027903459954</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.9678348320979996</v>
+      </c>
+      <c r="L11">
+        <v>0.9711295663089682</v>
+      </c>
+      <c r="M11">
+        <v>0.95909776077963</v>
+      </c>
+      <c r="N11">
+        <v>0.9692092685717857</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>0.9586145506910092</v>
+      </c>
+      <c r="E12">
+        <v>0.965433296449911</v>
+      </c>
+      <c r="F12">
+        <v>0.9529194695819296</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.9658777490661361</v>
+      </c>
+      <c r="L12">
+        <v>0.9693321597485978</v>
+      </c>
+      <c r="M12">
+        <v>0.9568741640828996</v>
+      </c>
+      <c r="N12">
+        <v>0.9672494062575363</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>0.9590598874230625</v>
+      </c>
+      <c r="E13">
+        <v>0.965832514931295</v>
+      </c>
+      <c r="F13">
+        <v>0.9534110037213522</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.9662991100629644</v>
+      </c>
+      <c r="L13">
+        <v>0.9697191678918754</v>
+      </c>
+      <c r="M13">
+        <v>0.9573528585443656</v>
+      </c>
+      <c r="N13">
+        <v>0.9676713656353108</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>0.9605128752060896</v>
+      </c>
+      <c r="E14">
+        <v>0.9671349216314457</v>
+      </c>
+      <c r="F14">
+        <v>0.9550148356480369</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.9676737575683368</v>
+      </c>
+      <c r="L14">
+        <v>0.9709816451978787</v>
+      </c>
+      <c r="M14">
+        <v>0.9589147300863435</v>
+      </c>
+      <c r="N14">
+        <v>0.9690479652978155</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>0.9614034314727259</v>
+      </c>
+      <c r="E15">
+        <v>0.9679330985122245</v>
+      </c>
+      <c r="F15">
+        <v>0.9559979364329374</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.9685162099568188</v>
+      </c>
+      <c r="L15">
+        <v>0.9717552794304373</v>
+      </c>
+      <c r="M15">
+        <v>0.9598720602737151</v>
+      </c>
+      <c r="N15">
+        <v>0.9698916140653192</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>0.9665178694539456</v>
+      </c>
+      <c r="E16">
+        <v>0.9725156901775721</v>
+      </c>
+      <c r="F16">
+        <v>0.961645237085902</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.9733530614536002</v>
+      </c>
+      <c r="L16">
+        <v>0.9761958836624663</v>
+      </c>
+      <c r="M16">
+        <v>0.9653705685715823</v>
+      </c>
+      <c r="N16">
+        <v>0.9747353344460209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>0.9696677839963934</v>
+      </c>
+      <c r="E17">
+        <v>0.9753368839536855</v>
+      </c>
+      <c r="F17">
+        <v>0.9651245671890957</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.9763308548856953</v>
+      </c>
+      <c r="L17">
+        <v>0.9789287275559528</v>
+      </c>
+      <c r="M17">
+        <v>0.9687575661130875</v>
+      </c>
+      <c r="N17">
+        <v>0.977717356686347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>0.9714850378471857</v>
+      </c>
+      <c r="E18">
+        <v>0.9769640686024236</v>
+      </c>
+      <c r="F18">
+        <v>0.9671323192825648</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.9780483928416053</v>
+      </c>
+      <c r="L18">
+        <v>0.9805046204782544</v>
+      </c>
+      <c r="M18">
+        <v>0.9707118006498177</v>
+      </c>
+      <c r="N18">
+        <v>0.979437333743159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>0.9721013613780333</v>
+      </c>
+      <c r="E19">
+        <v>0.977515857808154</v>
+      </c>
+      <c r="F19">
+        <v>0.9678133277377005</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.9786308272945855</v>
+      </c>
+      <c r="L19">
+        <v>0.9810389599682415</v>
+      </c>
+      <c r="M19">
+        <v>0.9713746164040301</v>
+      </c>
+      <c r="N19">
+        <v>0.9800205953198687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>0.9693319212360877</v>
+      </c>
+      <c r="E20">
+        <v>0.9750361152218031</v>
+      </c>
+      <c r="F20">
+        <v>0.964753533462481</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.9760133879045626</v>
+      </c>
+      <c r="L20">
+        <v>0.9786374126177108</v>
+      </c>
+      <c r="M20">
+        <v>0.9683964033044263</v>
+      </c>
+      <c r="N20">
+        <v>0.9773994388656876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>0.9600859869466866</v>
+      </c>
+      <c r="E21">
+        <v>0.9667522921095376</v>
+      </c>
+      <c r="F21">
+        <v>0.9545436105721303</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.9672699041061138</v>
+      </c>
+      <c r="L21">
+        <v>0.9706107614573479</v>
+      </c>
+      <c r="M21">
+        <v>0.9584558439532337</v>
+      </c>
+      <c r="N21">
+        <v>0.9686435383173532</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>0.9540709107520801</v>
+      </c>
+      <c r="E22">
+        <v>0.9613592925291372</v>
+      </c>
+      <c r="F22">
+        <v>0.9479054187673411</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0.9615777981805609</v>
+      </c>
+      <c r="L22">
+        <v>0.9653819973732611</v>
+      </c>
+      <c r="M22">
+        <v>0.951990560164185</v>
+      </c>
+      <c r="N22">
+        <v>0.9629433489484924</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>0.9572798556983285</v>
+      </c>
+      <c r="E23">
+        <v>0.9642367247431527</v>
+      </c>
+      <c r="F23">
+        <v>0.9514464178477569</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.9646148121753956</v>
+      </c>
+      <c r="L23">
+        <v>0.9681721051668798</v>
+      </c>
+      <c r="M23">
+        <v>0.9554395349172435</v>
+      </c>
+      <c r="N23">
+        <v>0.96598467585155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>0.9694837448603356</v>
+      </c>
+      <c r="E24">
+        <v>0.9751720762327492</v>
+      </c>
+      <c r="F24">
+        <v>0.9649212543907199</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0.9761568971781817</v>
+      </c>
+      <c r="L24">
+        <v>0.9787691011244811</v>
+      </c>
+      <c r="M24">
+        <v>0.9685596629489828</v>
+      </c>
+      <c r="N24">
+        <v>0.9775431519389358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.982867409809863</v>
+      </c>
+      <c r="E25">
+        <v>0.9871483364053408</v>
+      </c>
+      <c r="F25">
+        <v>0.9797160724965635</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0.988798886372217</v>
+      </c>
+      <c r="L25">
+        <v>0.9903620470570655</v>
+      </c>
+      <c r="M25">
+        <v>0.9829559583187819</v>
+      </c>
+      <c r="N25">
+        <v>0.990203094207683</v>
       </c>
     </row>
   </sheetData>
